--- a/testdf.xlsx
+++ b/testdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F50DF3-68BD-42BE-BE7D-D78471E10B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C1E3A3-DFF8-4011-B8FA-126736B02A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{EF40A46D-4C10-489A-87AF-FF6E1653687F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="18">
   <si>
     <t>week</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>피피랙</t>
+  </si>
+  <si>
+    <t>17w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -228,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +264,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1634,6 +1644,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="11">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.112</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="11">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="5">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E61" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>
